--- a/testautomation/src/main/resources/SourceDataFiles/CreditCardsData.xlsx
+++ b/testautomation/src/main/resources/SourceDataFiles/CreditCardsData.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">08</t>
   </si>
   <si>
-    <t xml:space="preserve">Mexico</t>
+    <t xml:space="preserve">MX</t>
   </si>
   <si>
     <t xml:space="preserve">VISA</t>
@@ -208,7 +208,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/testautomation/src/main/resources/SourceDataFiles/CreditCardsData.xlsx
+++ b/testautomation/src/main/resources/SourceDataFiles/CreditCardsData.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+  <si>
+    <t xml:space="preserve">idCreditCard</t>
+  </si>
   <si>
     <t xml:space="preserve">CardNumber</t>
   </si>
@@ -49,10 +52,16 @@
     <t xml:space="preserve">Bank</t>
   </si>
   <si>
+    <t xml:space="preserve">NationalId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN1001</t>
+  </si>
+  <si>
     <t xml:space="preserve">4772130000000003</t>
   </si>
   <si>
-    <t xml:space="preserve">Virginia Chavez</t>
+    <t xml:space="preserve">Viridiana Chavez</t>
   </si>
   <si>
     <t xml:space="preserve">08</t>
@@ -67,12 +76,21 @@
     <t xml:space="preserve">Bancomer</t>
   </si>
   <si>
+    <t xml:space="preserve">447788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN1002</t>
+  </si>
+  <si>
     <t xml:space="preserve">4568800000000009</t>
   </si>
   <si>
     <t xml:space="preserve">HSBC</t>
   </si>
   <si>
+    <t xml:space="preserve">CN1003</t>
+  </si>
+  <si>
     <t xml:space="preserve">5453752035121786</t>
   </si>
   <si>
@@ -82,12 +100,18 @@
     <t xml:space="preserve">Scotiabank</t>
   </si>
   <si>
+    <t xml:space="preserve">CN1004</t>
+  </si>
+  <si>
     <t xml:space="preserve">5300560000000009</t>
   </si>
   <si>
     <t xml:space="preserve">Banamex</t>
   </si>
   <si>
+    <t xml:space="preserve">CN1005</t>
+  </si>
+  <si>
     <t xml:space="preserve">378282246310005</t>
   </si>
   <si>
@@ -95,6 +119,9 @@
   </si>
   <si>
     <t xml:space="preserve">Conekta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN1006</t>
   </si>
   <si>
     <t xml:space="preserve">30569309025904</t>
@@ -114,7 +141,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -135,6 +162,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -179,12 +213,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -205,222 +247,267 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="F2" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="n">
         <v>44777</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>2021</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="n">
+      <c r="H3" s="1" t="n">
         <v>44777</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="F4" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="n">
         <v>44777</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="F5" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="n">
         <v>44777</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="F6" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="n">
         <v>44777</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="F7" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="n">
         <v>44777</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
